--- a/tablegridpooling.xlsx
+++ b/tablegridpooling.xlsx
@@ -12,12 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">m.grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m.gridO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m.gridI</t>
   </si>
   <si>
     <t xml:space="preserve">m.areagraphical</t>
@@ -554,804 +560,960 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="n">
         <v>8948</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>1.55040371486988</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>4</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>1.49812734082397</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>1.38888888888889</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
         <v>9940</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>1.72228575388987</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>8</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>2.99625468164794</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>1.38888888888889</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="n">
         <v>21068</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>3.65041411096095</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>1.38888888888889</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>10</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>3.74531835205993</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>3</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>4.16666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="n">
         <v>19751</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>3.42221991197976</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>1.38888888888889</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>9</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>3.37078651685393</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>1.38888888888889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n">
         <v>9824</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>1.70218664448834</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>1.87265917602996</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>1.38888888888889</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="n">
         <v>8551</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>1.48161624562498</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>4</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>1.49812734082397</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="n">
         <v>26724</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>4.63041896247011</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>2</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>2.77777777777778</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>12</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>4.49438202247191</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>6</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>8.33333333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="n">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="n">
         <v>33524</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>5.80864261704266</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>4</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>5.55555555555556</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>17</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>6.36704119850187</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6.94444444444444</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="n">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="n">
         <v>26390</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>4.57254738884846</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>4</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>5.55555555555556</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>14</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>5.2434456928839</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6.94444444444444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="n">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
         <v>15904</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
         <v>2.75565720622379</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>7</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>2.62172284644195</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>1.38888888888889</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="n">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="n">
         <v>5785</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F12" t="n">
         <v>1.00235644730915</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>3</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>1.12359550561798</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="n">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
         <v>30954</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" t="n">
         <v>5.36334338288803</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>3</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>4.16666666666667</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>19</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>7.11610486891386</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="n">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="n">
         <v>78279</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F14" t="n">
         <v>13.5632602141595</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>9</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>12.5</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>33</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>12.3595505617978</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>13</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>18.0555555555556</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="n">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="n">
         <v>60137</v>
       </c>
-      <c r="D15" t="n">
+      <c r="F15" t="n">
         <v>10.4198288110337</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>10</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>13.8888888888889</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>27</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
         <v>10.1123595505618</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>8</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>11.1111111111111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="n">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="n">
         <v>31694</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F16" t="n">
         <v>5.49156183941505</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>13</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
         <v>4.8689138576779</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>7</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>9.72222222222222</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="n">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="n">
         <v>3159</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F17" t="n">
         <v>0.547354194822747</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>0.374531835205993</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="n">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="n">
         <v>21423</v>
       </c>
-      <c r="D18" t="n">
+      <c r="F18" t="n">
         <v>3.71192431645701</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>2</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>2.77777777777778</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>13</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>4.8689138576779</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>4</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>5.55555555555556</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="n">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="n">
         <v>52212</v>
       </c>
-      <c r="D19" t="n">
+      <c r="F19" t="n">
         <v>9.04667844890321</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>22</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>30.5555555555556</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>19</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
         <v>7.11610486891386</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>8</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>11.1111111111111</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="n">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
         <v>37903</v>
       </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
         <v>6.56738399695048</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>9</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>12.5</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>16</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
         <v>5.99250936329588</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>3</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>4.16666666666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="n">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="n">
         <v>19014</v>
       </c>
-      <c r="D21" t="n">
+      <c r="F21" t="n">
         <v>3.29452126000624</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>2</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>2.77777777777778</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>7</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>2.62172284644195</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1.38888888888889</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="n">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="n">
         <v>1638</v>
       </c>
-      <c r="D22" t="n">
+      <c r="F22" t="n">
         <v>0.283813286204387</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>0.374531835205993</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="n">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="n">
         <v>4023</v>
       </c>
-      <c r="D23" t="n">
+      <c r="F23" t="n">
         <v>0.697057906227259</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>4</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>1.49812734082397</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="n">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="n">
         <v>13311</v>
       </c>
-      <c r="D24" t="n">
+      <c r="F24" t="n">
         <v>2.30637280382576</v>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
         <v>1</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>1.38888888888889</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>5</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
         <v>1.87265917602996</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" t="n">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="n">
         <v>14427</v>
       </c>
-      <c r="D25" t="n">
+      <c r="F25" t="n">
         <v>2.49974009772326</v>
       </c>
-      <c r="E25" t="n">
+      <c r="G25" t="n">
         <v>2</v>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
         <v>2.77777777777778</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>8</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>2.99625468164794</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" t="n">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="n">
         <v>22557</v>
       </c>
-      <c r="D26" t="n">
+      <c r="F26" t="n">
         <v>3.90841043767543</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>8</v>
       </c>
-      <c r="H26" t="n">
+      <c r="J26" t="n">
         <v>2.99625468164794</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>4</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>5.55555555555556</v>
       </c>
     </row>
